--- a/Dataset B.xlsx
+++ b/Dataset B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d40c1be7177d6ff/Documents/Programming Projects/Excel Utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d40c1be7177d6ff/Documents/Programming Projects/Excel-Utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0FBEC0-1E06-4079-A18D-AA90D766D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5B0FBEC0-1E06-4079-A18D-AA90D766D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08562505-978B-4727-ADE7-270104013467}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -341,6 +341,69 @@
   </si>
   <si>
     <t>Nurse</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://devhub.com/nibh/quisque/id/justo/sit.js?platea=morbi&amp;dictumst=a&amp;aliquam=ipsum&amp;augue=integer&amp;quam=a&amp;sollicitudin=nibh&amp;vitae=in&amp;consectetuer=quis&amp;eget=justo&amp;rutrum=maecenas&amp;at=rhoncus&amp;lorem=aliquam&amp;integer=lacus&amp;tincidunt=morbi&amp;ante=quis&amp;vel=tortor&amp;ipsum=id&amp;praesent=nulla&amp;blandit=ultrices&amp;lacinia=aliquet&amp;erat=maecenas&amp;vestibulum=leo&amp;sed=odio&amp;magna=condimentum&amp;at=id&amp;nunc=luctus&amp;commodo=nec&amp;placerat=molestie&amp;praesent=sed&amp;blandit=justo&amp;nam=pellentesque&amp;nulla=viverra&amp;integer=pede&amp;pede=ac&amp;justo=diam&amp;lacinia=cras&amp;eget=pellentesque&amp;tincidunt=volutpat&amp;eget=dui&amp;tempus=maecenas&amp;vel=tristique&amp;pede=est&amp;morbi=et&amp;porttitor=tempus&amp;lorem=semper&amp;id=est&amp;ligula=quam&amp;suspendisse=pharetra&amp;ornare=magna&amp;consequat=ac&amp;lectus=consequat&amp;in=metus&amp;est=sapien&amp;risus=ut&amp;auctor=nunc&amp;sed=vestibulum&amp;tristique=ante&amp;in=ipsum&amp;tempus=primis&amp;sit=in&amp;amet=faucibus&amp;sem=orci&amp;fusce=luctus&amp;consequat=et&amp;nulla=ultrices&amp;nisl=posuere&amp;nunc=cubilia&amp;nisl=curae&amp;duis=mauris&amp;bibendum=viverra&amp;felis=diam&amp;sed=vitae&amp;interdum=quam&amp;venenatis=suspendisse&amp;turpis=potenti&amp;enim=nullam&amp;blandit=porttitor&amp;mi=lacus&amp;in=at&amp;porttitor=turpis&amp;pede=donec&amp;justo=posuere&amp;eu=metus&amp;massa=vitae&amp;donec=ipsum&amp;dapibus=aliquam&amp;duis=non&amp;at=mauris&amp;velit=morbi&amp;eu=non&amp;est=lectus&amp;congue=aliquam</t>
+  </si>
+  <si>
+    <t>https://symantec.com/ligula.xml?platea=pede&amp;dictumst=ac&amp;etiam=diam&amp;faucibus=cras&amp;cursus=pellentesque&amp;urna=volutpat&amp;ut=dui&amp;tellus=maecenas&amp;nulla=tristique&amp;ut=est&amp;erat=et&amp;id=tempus&amp;mauris=semper&amp;vulputate=est&amp;elementum=quam&amp;nullam=pharetra&amp;varius=magna&amp;nulla=ac&amp;facilisi=consequat&amp;cras=metus&amp;non=sapien&amp;velit=ut&amp;nec=nunc&amp;nisi=vestibulum&amp;vulputate=ante&amp;nonummy=ipsum&amp;maecenas=primis&amp;tincidunt=in&amp;lacus=faucibus&amp;at=orci&amp;velit=luctus&amp;vivamus=et&amp;vel=ultrices&amp;nulla=posuere&amp;eget=cubilia&amp;eros=curae&amp;elementum=mauris&amp;pellentesque=viverra&amp;quisque=diam&amp;porta=vitae&amp;volutpat=quam&amp;erat=suspendisse&amp;quisque=potenti&amp;erat=nullam&amp;eros=porttitor&amp;viverra=lacus&amp;eget=at&amp;congue=turpis&amp;eget=donec&amp;semper=posuere&amp;rutrum=metus&amp;nulla=vitae&amp;nunc=ipsum&amp;purus=aliquam&amp;phasellus=non&amp;in=mauris&amp;felis=morbi&amp;donec=non&amp;semper=lectus&amp;sapien=aliquam&amp;a=sit&amp;libero=amet&amp;nam=diam&amp;dui=in&amp;proin=magna&amp;leo=bibendum&amp;odio=imperdiet&amp;porttitor=nullam&amp;id=orci&amp;consequat=pede&amp;in=venenatis&amp;consequat=non&amp;ut=sodales&amp;nulla=sed&amp;sed=tincidunt&amp;accumsan=eu&amp;felis=felis&amp;ut=fusce&amp;at=posuere</t>
+  </si>
+  <si>
+    <t>https://samsung.com/lorem/id/ligula/suspendisse/ornare.json?aenean=sed&amp;auctor=magna&amp;gravida=at&amp;sem=nunc&amp;praesent=commodo&amp;id=placerat&amp;massa=praesent&amp;id=blandit&amp;nisl=nam&amp;venenatis=nulla&amp;lacinia=integer&amp;aenean=pede&amp;sit=justo&amp;amet=lacinia&amp;justo=eget&amp;morbi=tincidunt&amp;ut=eget&amp;odio=tempus&amp;cras=vel&amp;mi=pede&amp;pede=morbi&amp;malesuada=porttitor&amp;in=lorem&amp;imperdiet=id&amp;et=ligula&amp;commodo=suspendisse&amp;vulputate=ornare&amp;justo=consequat&amp;in=lectus&amp;blandit=in&amp;ultrices=est&amp;enim=risus&amp;lorem=auctor&amp;ipsum=sed&amp;dolor=tristique&amp;sit=in&amp;amet=tempus&amp;consectetuer=sit&amp;adipiscing=amet&amp;elit=sem&amp;proin=fusce&amp;interdum=consequat&amp;mauris=nulla&amp;non=nisl&amp;ligula=nunc&amp;pellentesque=nisl&amp;ultrices=duis&amp;phasellus=bibendum&amp;id=felis&amp;sapien=sed&amp;in=interdum&amp;sapien=venenatis&amp;iaculis=turpis&amp;congue=enim&amp;vivamus=blandit&amp;metus=mi&amp;arcu=in&amp;adipiscing=porttitor&amp;molestie=pede&amp;hendrerit=justo&amp;at=eu&amp;vulputate=massa&amp;vitae=donec&amp;nisl=dapibus&amp;aenean=duis&amp;lectus=at&amp;pellentesque=velit&amp;eget=eu&amp;nunc=est&amp;donec=congue&amp;quis=elementum&amp;orci=in&amp;eget=hac&amp;orci=habitasse&amp;vehicula=platea&amp;condimentum=dictumst&amp;curabitur=morbi&amp;in=vestibulum&amp;libero=velit&amp;ut=id&amp;massa=pretium&amp;volutpat=iaculis&amp;convallis=diam&amp;morbi=erat&amp;odio=fermentum&amp;odio=justo&amp;elementum=nec&amp;eu=condimentum&amp;interdum=neque&amp;eu=sapien&amp;tincidunt=placerat&amp;in=ante&amp;leo=nulla&amp;maecenas=justo&amp;pulvinar=aliquam&amp;lobortis=quis</t>
+  </si>
+  <si>
+    <t>https://youtu.be/accumsan/tortor/quis/turpis/sed.js?risus=bibendum&amp;auctor=imperdiet&amp;sed=nullam&amp;tristique=orci&amp;in=pede&amp;tempus=venenatis&amp;sit=non&amp;amet=sodales&amp;sem=sed&amp;fusce=tincidunt&amp;consequat=eu&amp;nulla=felis&amp;nisl=fusce&amp;nunc=posuere&amp;nisl=felis&amp;duis=sed&amp;bibendum=lacus&amp;felis=morbi&amp;sed=sem</t>
+  </si>
+  <si>
+    <t>https://cbsnews.com/elit/ac.xml?magnis=faucibus&amp;dis=orci&amp;parturient=luctus&amp;montes=et&amp;nascetur=ultrices&amp;ridiculus=posuere&amp;mus=cubilia&amp;vivamus=curae&amp;vestibulum=donec&amp;sagittis=pharetra&amp;sapien=magna&amp;cum=vestibulum&amp;sociis=aliquet&amp;natoque=ultrices&amp;penatibus=erat&amp;et=tortor&amp;magnis=sollicitudin&amp;dis=mi&amp;parturient=sit&amp;montes=amet&amp;nascetur=lobortis&amp;ridiculus=sapien&amp;mus=sapien&amp;etiam=non&amp;vel=mi&amp;augue=integer&amp;vestibulum=ac&amp;rutrum=neque&amp;rutrum=duis&amp;neque=bibendum&amp;aenean=morbi&amp;auctor=non&amp;gravida=quam&amp;sem=nec</t>
+  </si>
+  <si>
+    <t>https://zimbio.com/et/tempus/semper/est/quam/pharetra/magna.jsp?sit=sit&amp;amet=amet&amp;eros=lobortis&amp;suspendisse=sapien&amp;accumsan=sapien&amp;tortor=non&amp;quis=mi&amp;turpis=integer&amp;sed=ac&amp;ante=neque&amp;vivamus=duis&amp;tortor=bibendum&amp;duis=morbi&amp;mattis=non&amp;egestas=quam&amp;metus=nec&amp;aenean=dui&amp;fermentum=luctus&amp;donec=rutrum&amp;ut=nulla&amp;mauris=tellus&amp;eget=in&amp;massa=sagittis&amp;tempor=dui&amp;convallis=vel&amp;nulla=nisl&amp;neque=duis&amp;libero=ac&amp;convallis=nibh&amp;eget=fusce&amp;eleifend=lacus&amp;luctus=purus&amp;ultricies=aliquet&amp;eu=at&amp;nibh=feugiat&amp;quisque=non&amp;id=pretium&amp;justo=quis&amp;sit=lectus&amp;amet=suspendisse&amp;sapien=potenti&amp;dignissim=in&amp;vestibulum=eleifend&amp;vestibulum=quam&amp;ante=a&amp;ipsum=odio&amp;primis=in&amp;in=hac&amp;faucibus=habitasse&amp;orci=platea&amp;luctus=dictumst&amp;et=maecenas&amp;ultrices=ut&amp;posuere=massa&amp;cubilia=quis&amp;curae=augue&amp;nulla=luctus&amp;dapibus=tincidunt&amp;dolor=nulla&amp;vel=mollis&amp;est=molestie&amp;donec=lorem&amp;odio=quisque&amp;justo=ut&amp;sollicitudin=erat&amp;ut=curabitur&amp;suscipit=gravida&amp;a=nisi&amp;feugiat=at&amp;et=nibh&amp;eros=in&amp;vestibulum=hac&amp;ac=habitasse&amp;est=platea&amp;lacinia=dictumst&amp;nisi=aliquam&amp;venenatis=augue&amp;tristique=quam&amp;fusce=sollicitudin&amp;congue=vitae&amp;diam=consectetuer&amp;id=eget&amp;ornare=rutrum&amp;imperdiet=at&amp;sapien=lorem&amp;urna=integer&amp;pretium=tincidunt&amp;nisl=ante&amp;ut=vel&amp;volutpat=ipsum&amp;sapien=praesent&amp;arcu=blandit&amp;sed=lacinia</t>
+  </si>
+  <si>
+    <t>https://bbc.co.uk/pulvinar/lobortis/est/phasellus/sit/amet/erat.aspx?phasellus=ligula&amp;in=in&amp;felis=lacus&amp;donec=curabitur&amp;semper=at&amp;sapien=ipsum&amp;a=ac&amp;libero=tellus&amp;nam=semper&amp;dui=interdum&amp;proin=mauris&amp;leo=ullamcorper&amp;odio=purus&amp;porttitor=sit&amp;id=amet&amp;consequat=nulla&amp;in=quisque&amp;consequat=arcu&amp;ut=libero&amp;nulla=rutrum</t>
+  </si>
+  <si>
+    <t>http://hostgator.com/at/dolor/quis/odio/consequat/varius.jsp?ultricies=integer&amp;eu=tincidunt&amp;nibh=ante&amp;quisque=vel&amp;id=ipsum&amp;justo=praesent&amp;sit=blandit&amp;amet=lacinia&amp;sapien=erat</t>
+  </si>
+  <si>
+    <t>http://whitehouse.gov/sapien/varius/ut/blandit.aspx?dis=lectus&amp;parturient=in&amp;montes=quam&amp;nascetur=fringilla&amp;ridiculus=rhoncus&amp;mus=mauris&amp;vivamus=enim&amp;vestibulum=leo&amp;sagittis=rhoncus&amp;sapien=sed&amp;cum=vestibulum&amp;sociis=sit&amp;natoque=amet&amp;penatibus=cursus&amp;et=id&amp;magnis=turpis&amp;dis=integer&amp;parturient=aliquet&amp;montes=massa&amp;nascetur=id&amp;ridiculus=lobortis&amp;mus=convallis&amp;etiam=tortor&amp;vel=risus&amp;augue=dapibus&amp;vestibulum=augue&amp;rutrum=vel&amp;rutrum=accumsan&amp;neque=tellus&amp;aenean=nisi&amp;auctor=eu&amp;gravida=orci&amp;sem=mauris&amp;praesent=lacinia&amp;id=sapien&amp;massa=quis&amp;id=libero&amp;nisl=nullam&amp;venenatis=sit&amp;lacinia=amet&amp;aenean=turpis&amp;sit=elementum&amp;amet=ligula&amp;justo=vehicula&amp;morbi=consequat&amp;ut=morbi&amp;odio=a&amp;cras=ipsum&amp;mi=integer&amp;pede=a&amp;malesuada=nibh&amp;in=in&amp;imperdiet=quis&amp;et=justo&amp;commodo=maecenas&amp;vulputate=rhoncus&amp;justo=aliquam&amp;in=lacus&amp;blandit=morbi&amp;ultrices=quis&amp;enim=tortor&amp;lorem=id&amp;ipsum=nulla&amp;dolor=ultrices&amp;sit=aliquet&amp;amet=maecenas&amp;consectetuer=leo&amp;adipiscing=odio&amp;elit=condimentum&amp;proin=id&amp;interdum=luctus&amp;mauris=nec&amp;non=molestie&amp;ligula=sed&amp;pellentesque=justo&amp;ultrices=pellentesque&amp;phasellus=viverra&amp;id=pede&amp;sapien=ac&amp;in=diam&amp;sapien=cras&amp;iaculis=pellentesque&amp;congue=volutpat&amp;vivamus=dui&amp;metus=maecenas&amp;arcu=tristique&amp;adipiscing=est&amp;molestie=et&amp;hendrerit=tempus&amp;at=semper&amp;vulputate=est</t>
+  </si>
+  <si>
+    <t>https://sciencedirect.com/fermentum/justo/nec/condimentum/neque.jpg?duis=elementum&amp;faucibus=ligula&amp;accumsan=vehicula&amp;odio=consequat&amp;curabitur=morbi&amp;convallis=a&amp;duis=ipsum&amp;consequat=integer&amp;dui=a&amp;nec=nibh&amp;nisi=in&amp;volutpat=quis&amp;eleifend=justo&amp;donec=maecenas&amp;ut=rhoncus&amp;dolor=aliquam&amp;morbi=lacus&amp;vel=morbi&amp;lectus=quis&amp;in=tortor&amp;quam=id&amp;fringilla=nulla&amp;rhoncus=ultrices&amp;mauris=aliquet&amp;enim=maecenas&amp;leo=leo&amp;rhoncus=odio&amp;sed=condimentum&amp;vestibulum=id&amp;sit=luctus&amp;amet=nec&amp;cursus=molestie&amp;id=sed&amp;turpis=justo&amp;integer=pellentesque&amp;aliquet=viverra&amp;massa=pede&amp;id=ac&amp;lobortis=diam&amp;convallis=cras&amp;tortor=pellentesque&amp;risus=volutpat&amp;dapibus=dui&amp;augue=maecenas&amp;vel=tristique&amp;accumsan=est&amp;tellus=et&amp;nisi=tempus&amp;eu=semper&amp;orci=est&amp;mauris=quam&amp;lacinia=pharetra&amp;sapien=magna&amp;quis=ac&amp;libero=consequat&amp;nullam=metus&amp;sit=sapien&amp;amet=ut&amp;turpis=nunc&amp;elementum=vestibulum&amp;ligula=ante&amp;vehicula=ipsum&amp;consequat=primis&amp;morbi=in&amp;a=faucibus&amp;ipsum=orci&amp;integer=luctus&amp;a=et&amp;nibh=ultrices&amp;in=posuere</t>
+  </si>
+  <si>
+    <t>https://home.pl/ipsum/primis/in.xml?volutpat=morbi</t>
+  </si>
+  <si>
+    <t>https://hhs.gov/sodales/scelerisque/mauris.js?erat=duis&amp;tortor=aliquam&amp;sollicitudin=convallis&amp;mi=nunc&amp;sit=proin&amp;amet=at&amp;lobortis=turpis&amp;sapien=a&amp;sapien=pede&amp;non=posuere&amp;mi=nonummy&amp;integer=integer&amp;ac=non&amp;neque=velit&amp;duis=donec&amp;bibendum=diam&amp;morbi=neque&amp;non=vestibulum&amp;quam=eget&amp;nec=vulputate&amp;dui=ut&amp;luctus=ultrices&amp;rutrum=vel&amp;nulla=augue&amp;tellus=vestibulum&amp;in=ante&amp;sagittis=ipsum&amp;dui=primis&amp;vel=in&amp;nisl=faucibus&amp;duis=orci&amp;ac=luctus</t>
+  </si>
+  <si>
+    <t>https://cloudflare.com/imperdiet/et/commodo/vulputate.xml?sit=sed&amp;amet=tincidunt&amp;eros=eu&amp;suspendisse=felis&amp;accumsan=fusce&amp;tortor=posuere&amp;quis=felis&amp;turpis=sed&amp;sed=lacus&amp;ante=morbi&amp;vivamus=sem&amp;tortor=mauris&amp;duis=laoreet&amp;mattis=ut&amp;egestas=rhoncus&amp;metus=aliquet&amp;aenean=pulvinar&amp;fermentum=sed&amp;donec=nisl&amp;ut=nunc&amp;mauris=rhoncus&amp;eget=dui&amp;massa=vel&amp;tempor=sem&amp;convallis=sed&amp;nulla=sagittis&amp;neque=nam&amp;libero=congue&amp;convallis=risus&amp;eget=semper&amp;eleifend=porta&amp;luctus=volutpat&amp;ultricies=quam&amp;eu=pede&amp;nibh=lobortis&amp;quisque=ligula&amp;id=sit&amp;justo=amet&amp;sit=eleifend&amp;amet=pede&amp;sapien=libero&amp;dignissim=quis&amp;vestibulum=orci&amp;vestibulum=nullam&amp;ante=molestie</t>
+  </si>
+  <si>
+    <t>http://lycos.com/erat/id/mauris/vulputate.xml?iaculis=ullamcorper&amp;congue=augue&amp;vivamus=a&amp;metus=suscipit&amp;arcu=nulla&amp;adipiscing=elit&amp;molestie=ac</t>
+  </si>
+  <si>
+    <t>http://twitpic.com/nisi.json?lacinia=non&amp;eget=sodales&amp;tincidunt=sed&amp;eget=tincidunt&amp;tempus=eu&amp;vel=felis&amp;pede=fusce&amp;morbi=posuere&amp;porttitor=felis&amp;lorem=sed&amp;id=lacus&amp;ligula=morbi&amp;suspendisse=sem&amp;ornare=mauris&amp;consequat=laoreet&amp;lectus=ut&amp;in=rhoncus&amp;est=aliquet&amp;risus=pulvinar&amp;auctor=sed&amp;sed=nisl&amp;tristique=nunc&amp;in=rhoncus&amp;tempus=dui&amp;sit=vel&amp;amet=sem&amp;sem=sed&amp;fusce=sagittis&amp;consequat=nam&amp;nulla=congue&amp;nisl=risus&amp;nunc=semper&amp;nisl=porta&amp;duis=volutpat&amp;bibendum=quam&amp;felis=pede&amp;sed=lobortis&amp;interdum=ligula&amp;venenatis=sit&amp;turpis=amet&amp;enim=eleifend&amp;blandit=pede&amp;mi=libero&amp;in=quis&amp;porttitor=orci&amp;pede=nullam&amp;justo=molestie&amp;eu=nibh&amp;massa=in&amp;donec=lectus&amp;dapibus=pellentesque&amp;duis=at&amp;at=nulla&amp;velit=suspendisse&amp;eu=potenti&amp;est=cras&amp;congue=in&amp;elementum=purus&amp;in=eu&amp;hac=magna&amp;habitasse=vulputate&amp;platea=luctus&amp;dictumst=cum&amp;morbi=sociis&amp;vestibulum=natoque&amp;velit=penatibus&amp;id=et&amp;pretium=magnis</t>
+  </si>
+  <si>
+    <t>https://nsw.gov.au/vestibulum/ac/est/lacinia.js?nunc=ante</t>
+  </si>
+  <si>
+    <t>http://imdb.com/vel/est/donec/odio/justo.aspx?tortor=nulla&amp;quis=neque&amp;turpis=libero&amp;sed=convallis&amp;ante=eget&amp;vivamus=eleifend&amp;tortor=luctus&amp;duis=ultricies&amp;mattis=eu&amp;egestas=nibh&amp;metus=quisque&amp;aenean=id&amp;fermentum=justo&amp;donec=sit&amp;ut=amet&amp;mauris=sapien&amp;eget=dignissim&amp;massa=vestibulum&amp;tempor=vestibulum&amp;convallis=ante&amp;nulla=ipsum&amp;neque=primis&amp;libero=in&amp;convallis=faucibus&amp;eget=orci&amp;eleifend=luctus&amp;luctus=et&amp;ultricies=ultrices&amp;eu=posuere&amp;nibh=cubilia&amp;quisque=curae&amp;id=nulla&amp;justo=dapibus</t>
+  </si>
+  <si>
+    <t>https://smugmug.com/in/tempus.jpg?sit=faucibus&amp;amet=cursus&amp;consectetuer=urna&amp;adipiscing=ut&amp;elit=tellus&amp;proin=nulla&amp;risus=ut&amp;praesent=erat&amp;lectus=id&amp;vestibulum=mauris&amp;quam=vulputate&amp;sapien=elementum&amp;varius=nullam&amp;ut=varius&amp;blandit=nulla&amp;non=facilisi&amp;interdum=cras&amp;in=non&amp;ante=velit&amp;vestibulum=nec&amp;ante=nisi&amp;ipsum=vulputate&amp;primis=nonummy&amp;in=maecenas&amp;faucibus=tincidunt&amp;orci=lacus&amp;luctus=at&amp;et=velit&amp;ultrices=vivamus&amp;posuere=vel&amp;cubilia=nulla&amp;curae=eget&amp;duis=eros&amp;faucibus=elementum&amp;accumsan=pellentesque&amp;odio=quisque&amp;curabitur=porta&amp;convallis=volutpat&amp;duis=erat&amp;consequat=quisque&amp;dui=erat&amp;nec=eros&amp;nisi=viverra&amp;volutpat=eget&amp;eleifend=congue&amp;donec=eget&amp;ut=semper&amp;dolor=rutrum&amp;morbi=nulla&amp;vel=nunc&amp;lectus=purus&amp;in=phasellus&amp;quam=in&amp;fringilla=felis&amp;rhoncus=donec&amp;mauris=semper&amp;enim=sapien&amp;leo=a&amp;rhoncus=libero&amp;sed=nam&amp;vestibulum=dui&amp;sit=proin&amp;amet=leo&amp;cursus=odio&amp;id=porttitor&amp;turpis=id&amp;integer=consequat&amp;aliquet=in&amp;massa=consequat&amp;id=ut&amp;lobortis=nulla&amp;convallis=sed&amp;tortor=accumsan&amp;risus=felis</t>
+  </si>
+  <si>
+    <t>http://simplemachines.org/erat/curabitur/gravida.jpg?convallis=neque&amp;nunc=libero&amp;proin=convallis&amp;at=eget&amp;turpis=eleifend&amp;a=luctus&amp;pede=ultricies&amp;posuere=eu&amp;nonummy=nibh&amp;integer=quisque&amp;non=id&amp;velit=justo&amp;donec=sit&amp;diam=amet&amp;neque=sapien&amp;vestibulum=dignissim&amp;eget=vestibulum&amp;vulputate=vestibulum&amp;ut=ante&amp;ultrices=ipsum&amp;vel=primis&amp;augue=in&amp;vestibulum=faucibus&amp;ante=orci&amp;ipsum=luctus&amp;primis=et&amp;in=ultrices&amp;faucibus=posuere&amp;orci=cubilia&amp;luctus=curae&amp;et=nulla&amp;ultrices=dapibus&amp;posuere=dolor&amp;cubilia=vel&amp;curae=est&amp;donec=donec&amp;pharetra=odio&amp;magna=justo&amp;vestibulum=sollicitudin&amp;aliquet=ut&amp;ultrices=suscipit&amp;erat=a&amp;tortor=feugiat&amp;sollicitudin=et&amp;mi=eros&amp;sit=vestibulum&amp;amet=ac&amp;lobortis=est&amp;sapien=lacinia&amp;sapien=nisi&amp;non=venenatis&amp;mi=tristique&amp;integer=fusce&amp;ac=congue&amp;neque=diam&amp;duis=id</t>
+  </si>
+  <si>
+    <t>https://spiegel.de/vitae/ipsum/aliquam/non/mauris/morbi/non.png?hendrerit=convallis&amp;at=tortor&amp;vulputate=risus&amp;vitae=dapibus&amp;nisl=augue&amp;aenean=vel&amp;lectus=accumsan&amp;pellentesque=tellus&amp;eget=nisi&amp;nunc=eu&amp;donec=orci&amp;quis=mauris&amp;orci=lacinia&amp;eget=sapien&amp;orci=quis&amp;vehicula=libero&amp;condimentum=nullam&amp;curabitur=sit&amp;in=amet&amp;libero=turpis&amp;ut=elementum&amp;massa=ligula&amp;volutpat=vehicula&amp;convallis=consequat&amp;morbi=morbi&amp;odio=a&amp;odio=ipsum&amp;elementum=integer&amp;eu=a&amp;interdum=nibh&amp;eu=in&amp;tincidunt=quis&amp;in=justo&amp;leo=maecenas&amp;maecenas=rhoncus&amp;pulvinar=aliquam&amp;lobortis=lacus&amp;est=morbi&amp;phasellus=quis&amp;sit=tortor&amp;amet=id&amp;erat=nulla&amp;nulla=ultrices&amp;tempus=aliquet&amp;vivamus=maecenas&amp;in=leo&amp;felis=odio&amp;eu=condimentum&amp;sapien=id&amp;cursus=luctus&amp;vestibulum=nec&amp;proin=molestie&amp;eu=sed&amp;mi=justo&amp;nulla=pellentesque&amp;ac=viverra&amp;enim=pede&amp;in=ac&amp;tempor=diam&amp;turpis=cras&amp;nec=pellentesque&amp;euismod=volutpat&amp;scelerisque=dui&amp;quam=maecenas&amp;turpis=tristique&amp;adipiscing=est&amp;lorem=et&amp;vitae=tempus&amp;mattis=semper&amp;nibh=est&amp;ligula=quam&amp;nec=pharetra&amp;sem=magna&amp;duis=ac&amp;aliquam=consequat&amp;convallis=metus&amp;nunc=sapien&amp;proin=ut&amp;at=nunc&amp;turpis=vestibulum&amp;a=ante&amp;pede=ipsum&amp;posuere=primis&amp;nonummy=in&amp;integer=faucibus&amp;non=orci&amp;velit=luctus&amp;donec=et</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1267,7 @@
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1292,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -1255,8 +1321,11 @@
       <c r="H2" s="1">
         <v>49651.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -1281,8 +1350,11 @@
       <c r="H3" s="1">
         <v>57450.879999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -1307,8 +1379,11 @@
       <c r="H4" s="1">
         <v>40411.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -1333,8 +1408,11 @@
       <c r="H5" s="1">
         <v>59437.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1359,8 +1437,11 @@
       <c r="H6" s="1">
         <v>58994.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
@@ -1385,8 +1466,11 @@
       <c r="H7" s="1">
         <v>59251.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
@@ -1411,8 +1495,11 @@
       <c r="H8" s="1">
         <v>51208.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
@@ -1437,8 +1524,11 @@
       <c r="H9" s="1">
         <v>67589.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29</v>
       </c>
@@ -1463,8 +1553,11 @@
       <c r="H10" s="1">
         <v>67286.070000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1489,8 +1582,11 @@
       <c r="H11" s="1">
         <v>44664.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31</v>
       </c>
@@ -1515,8 +1611,11 @@
       <c r="H12" s="1">
         <v>69826.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>32</v>
       </c>
@@ -1541,8 +1640,11 @@
       <c r="H13" s="1">
         <v>51918.42</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -1567,8 +1669,11 @@
       <c r="H14" s="1">
         <v>41701.96</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>34</v>
       </c>
@@ -1593,8 +1698,11 @@
       <c r="H15" s="1">
         <v>55329.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35</v>
       </c>
@@ -1619,8 +1727,11 @@
       <c r="H16" s="1">
         <v>48233.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36</v>
       </c>
@@ -1645,8 +1756,11 @@
       <c r="H17" s="1">
         <v>68532.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>37</v>
       </c>
@@ -1671,8 +1785,11 @@
       <c r="H18" s="1">
         <v>58650.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>38</v>
       </c>
@@ -1697,8 +1814,11 @@
       <c r="H19" s="1">
         <v>58200.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>39</v>
       </c>
@@ -1723,8 +1843,11 @@
       <c r="H20" s="1">
         <v>48381.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1748,6 +1871,9 @@
       </c>
       <c r="H21" s="1">
         <v>42106.78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
